--- a/조선근/data_test/weathers_test.xlsx
+++ b/조선근/data_test/weathers_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sk_jo\Desktop\Project\titanic\조선근\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sk_jo\Desktop\Project\titanic\조선근\data_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F84A6EA-3D25-410B-B444-5D7609F9647A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59669B3-375B-497F-BD0B-6060471E8A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="660" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>측정일자</t>
   </si>
@@ -127,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -135,6 +135,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -415,15 +416,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:Q31"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,6 +2069,59 @@
       </c>
       <c r="Q31" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B32" s="1">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="G32" s="1">
+        <v>12</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>21.1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="K32" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
